--- a/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 스폰자리에 캐릭터나 몬스터가 있다면 대상을 옆으로 옴겨줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 몬스터를 스폰하는 것은 위쪽(z축)으로 이동될수 없음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사용되는 데이터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미션 데이터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,10 +308,6 @@
   </si>
   <si>
     <t>데이터 명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -391,90 +379,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  - 스폰 지점마다 받아온 스폰 데이터 를 받아 생성 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 한 레벨에 한번 스폰하며 스폰 지점에 나눠서 스폰함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 레벨마다 받아온 몬스터를 스폰지점마다 하나씩 배치 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 레벨마다 한번의 스폰이 있으며 배치된 몬스터를 전부스폰함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어미션에 사용되는 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 정해진 횟수만큼 몬스터가 계속 리스폰 되는 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 정해진 횟수만큼 여러 번 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 점점 상승하는 난이도로 성장의 재미를 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  - 미션 테이블에 웨이브에 따라 스폰되는 몬스터를 배치, 생성함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 모든 몬스터가 죽으면  SpawnTime만큼 대기하고 다음 레벨을 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무제한 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 생존미션에 사용되는 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 정해진 값을 일정시간동안 계속해서 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 계속해서 나오는 적을상대하면서 지속적인 긴장감있는 전투를 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">  - 스폰 지점마다 받아온 스폰 데이터 를 받아 생성 함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 미션 테이블에 레벨에 따라 스폰되는 몬스터를 배치, 생성함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 한 레벨에 한번 스폰하며 스폰 지점에 나눠서 스폰함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 레벨마다 받아온 몬스터를 스폰지점마다 하나씩 배치 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 미션 테이블의 SpawnTime에서 다음레벨로가는 시간을 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 레벨마다 한번의 스폰이 있으며 배치된 몬스터를 전부스폰함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 방어미션에 사용되는 스폰 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 정해진 횟수만큼 몬스터가 계속 리스폰 되는 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 정해진 횟수만큼 여러 번 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 점점 상승하는 난이도로 성장의 재미를 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 미션 테이블에 웨이브에 따라 스폰되는 몬스터를 배치, 생성함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 모든 몬스터가 죽으면  SpawnTime만큼 대기하고 다음 레벨을 시작함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무제한 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 생존미션에 사용되는 스폰 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 정해진 값을 일정시간동안 계속해서 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 계속해서 나오는 적을상대하면서 지속적인 긴장감있는 전투를 유도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰 지점마다 받아온 스폰 데이터 를 받아 생성 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 세팅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -487,10 +463,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>남은시간에 따른 스폰 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>생성 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -535,10 +507,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>MonsterCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤으로 돌리는 선택된 맵의 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션의 단계, 세팅, 웨이브를 나타내는 단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 종류와 스폰수로 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 웨이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 무제한 스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 데이터 흐름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브, 무제한 스폰 내용 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터가 재스폰 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 흐름도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 데이터 문서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용되는 데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 데이터의 SpawnTime에서 다음레벨로 가는 시간을 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰지점마다 미션 데이터에서 받은 몬스터를 순차적으로 배분함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰되는 몬스터의 수와 종류는 미션 데이터에서 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 1마리씩 소환함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰후 배치된 몬스터가 더 있다면 4초후 다시 생성함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>LimitTime</t>
-  </si>
-  <si>
-    <t>SpawnTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 데이터 에서 LimitTime을 받아 제한 시간으로 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 남은시간에 따른 스폰 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 종료</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -546,71 +639,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>랜덤으로 돌리는 선택된 맵의 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미션의 단계, 세팅, 웨이브를 나타내는 단위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster1,2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 종류와 스폰수로 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 웨이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 무제한 스폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 데이터 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브, 무제한 스폰 내용 추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터가 재스폰 시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 흐름도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 흐름도</t>
+    <t xml:space="preserve"> - 미션 데이터의 Level을 확인하고 다음 Level이 없다면 스폰이 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 지점에 더 이상 배치되는 몬스터가 없다면 스폰이 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰 지점에 캐릭터나 몬스터가 있고 겹친다면 생성대상을 옆으로 옴겨줌.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터를 스폰하는 것은 위쪽(z축)으로 이동될 수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 데이터 에서 LimitTime을 받아 제한 시간으로 사용함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션마다 다른 재생성 데이터가 필요함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 지점에 배치된 몬스터를 모두 소환함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스폰 배치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +747,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -730,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,9 +837,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +850,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,13 +971,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>684019</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2941444</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>187742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -929,13 +1019,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>45844</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2617594</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>187742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -977,13 +1067,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>49857</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278457</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>196884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3050,10 +3140,10 @@
         <v>43666</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -3065,7 +3155,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -3131,112 +3221,112 @@
     </row>
     <row r="21" spans="2:5" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3271,12 +3361,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -3286,32 +3376,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -3321,17 +3411,17 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3344,452 +3434,536 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q49"/>
+  <dimension ref="A2:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="45.375" customWidth="1"/>
     <col min="12" max="12" width="21.75" style="4" customWidth="1"/>
     <col min="13" max="13" width="49.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="5" t="s">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="E24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="1"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="Q33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="Q12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="12" t="s">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>156</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N51"/>
+      <c r="O51"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="N52"/>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="N53"/>
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L21" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="N54"/>
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B33:C33"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3799,385 +3973,502 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O49"/>
+  <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
     <col min="12" max="12" width="21.75" style="4" customWidth="1"/>
     <col min="13" max="13" width="49.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="16" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="I34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L21" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N32"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="N51"/>
+      <c r="O51"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N52"/>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N53"/>
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N54"/>
+      <c r="O54"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B34:C34"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4186,386 +4477,558 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O49"/>
+  <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="12" max="12" width="21.75" style="4" customWidth="1"/>
     <col min="13" max="13" width="49.875" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.875" style="4" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="16" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="23"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C33" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L8" s="5" t="s">
+      <c r="D33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="C35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="23"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="19"/>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+      <c r="O51"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>67</v>
+      </c>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>97</v>
+      </c>
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>116</v>
+      </c>
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+      <c r="O55"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>117</v>
+      </c>
+      <c r="O56"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+      <c r="O57"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O60"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="N61"/>
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L24" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N26" s="5"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N27" s="5"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L28" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N29"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N30"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N31"/>
-      <c r="O31"/>
-    </row>
-    <row r="33" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4595,7 +5058,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -4620,7 +5083,7 @@
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -4638,13 +5101,13 @@
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -4657,7 +5120,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -4669,7 +5132,7 @@
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4681,7 +5144,7 @@
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -4696,13 +5159,13 @@
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -4727,7 +5190,7 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4739,7 +5202,7 @@
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -4754,13 +5217,13 @@
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>
@@ -4785,7 +5248,7 @@
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -4797,7 +5260,7 @@
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C47" s="5" t="s">

--- a/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="161">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -866,14 +866,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3696,10 +3696,10 @@
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="24"/>
       <c r="Q33" t="s">
         <v>84</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="B40" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3975,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4226,10 +4226,10 @@
       <c r="M33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="24"/>
       <c r="I34" t="s">
         <v>87</v>
       </c>
@@ -4479,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4725,7 +4725,7 @@
       <c r="M30" s="14"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="14"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -4793,66 +4793,79 @@
       <c r="O37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="O38"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="24"/>
       <c r="D39" s="14"/>
       <c r="O39"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" s="14"/>
       <c r="O40"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
       <c r="D41" s="14"/>
       <c r="O41"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
       <c r="D42" s="14"/>
       <c r="O42"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="O43"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
+      <c r="B44" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="D44" s="14"/>
       <c r="O44"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" t="s">
+        <v>159</v>
+      </c>
       <c r="D45" s="14"/>
       <c r="O45"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="14"/>
       <c r="D46" s="19"/>
       <c r="O46"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="O47"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
       <c r="O48"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
       <c r="O49"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
@@ -4862,18 +4875,27 @@
       <c r="O50"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J51" t="s">
         <v>104</v>
       </c>
       <c r="O51"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>155</v>
+      </c>
       <c r="J52" t="s">
         <v>67</v>
       </c>
       <c r="O52"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
       <c r="J53" t="s">
         <v>97</v>
       </c>
@@ -5031,6 +5053,9 @@
       <c r="D86" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B39:C39"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -3436,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3975,7 +3975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:C48"/>
     </sheetView>
   </sheetViews>
@@ -4479,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스폰 시스템_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -971,13 +971,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2941444</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>187742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3093,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3434,10 +3434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q70"/>
+  <dimension ref="A2:Q71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3725,61 +3725,52 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>154</v>
       </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>155</v>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -3788,7 +3779,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -3796,6 +3787,9 @@
       <c r="O48"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
       <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
@@ -3808,15 +3802,12 @@
       <c r="O50"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L51"/>
+      <c r="M51"/>
       <c r="N51"/>
       <c r="O51"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
       <c r="N52"/>
       <c r="O52"/>
     </row>
@@ -3829,10 +3820,8 @@
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B54" s="16" t="s">
-        <v>131</v>
-      </c>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -3840,12 +3829,16 @@
       <c r="N54"/>
       <c r="O54"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="14"/>
+    <row r="55" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
+      <c r="N55"/>
+      <c r="O55"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="14"/>
@@ -3853,8 +3846,6 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="14"/>
@@ -3889,6 +3880,8 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="14"/>
@@ -3959,6 +3952,13 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
